--- a/example.xlsx
+++ b/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\Desktop\AirRace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889A32F-D482-4B01-A0A0-4111116F6D01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA7E1D2-59FB-461E-BF4D-57776B586752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" activeTab="1" xr2:uid="{F0A0141F-C71A-4233-B6A7-09CFA1C6FD4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" xr2:uid="{F0A0141F-C71A-4233-B6A7-09CFA1C6FD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Example</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -437,17 +434,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CCDBB6-EB56-4D22-A1CE-2CC77F6D4D0C}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -578,6 +575,21 @@
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2394938-9812-406C-AEC2-0DCFD417E74A}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -597,87 +609,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
